--- a/scripts/Performance.xlsx
+++ b/scripts/Performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -27,47 +27,162 @@
     <t>originalName</t>
   </si>
   <si>
-    <t>sociallinks</t>
-  </si>
-  <si>
     <t>profileImage</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>instagrampages</t>
-  </si>
-  <si>
-    <t>intodayhiphop</t>
-  </si>
-  <si>
-    <t>𝓐𝓭𝓲𝓽𝔂𝓪</t>
-  </si>
-  <si>
-    <t>intodayhiphop.jpg</t>
-  </si>
-  <si>
-    <t>indian.hiphop.scene</t>
-  </si>
-  <si>
-    <t>indian hiphop scene</t>
-  </si>
-  <si>
-    <t>indian.hiphop.scene.jpg</t>
-  </si>
-  <si>
-    <t>instagram=https://www.instagram.com/intodayhiphop,youtube=https://www.youtube.com/channel/UCGx17KOcwOZZD6Hn3KYeNYw,twitter=https://twitter.com/ndvthiphop</t>
-  </si>
-  <si>
-    <t>instagram=https://www.instagram.com/indian.hiphop.scene</t>
+    <t>city</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Lil Golu</t>
+  </si>
+  <si>
+    <t>https://twitter.com/asligolu</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/asligolu</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/iamlilgolu/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKtKjwT5geJT1Pibjr_qrOA</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/6y16j3NM7yVHoPxDjVquuq?autoplay=true</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/lil-golu/1487471789</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>lilGolu.jpg</t>
+  </si>
+  <si>
+    <t>Sahil Kaushal</t>
+  </si>
+  <si>
+    <r>
+      <t>Lil Golu, whose real name is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sahil Kaushal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> was born on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> December 1994 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in India. He is currently </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26 years old.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Likewise, his zodiac sign is Sagittarius. Golu holds Indian citizenship and follows Hinduism. Regarding his family members, he has not shared much of his personal information. However, he has one brother and a sister.Golu started his music career after completing his education. He had a great interest in music since a young age. He used to write his own songs and raps. However, he came to the limelight after joining the band Mafia Mundeer, created by Honey Singh in 2006. The band consisted of some of the big names today like Badshah, Raftaar, and Ikka. However, the band was dissolved in 2012 due to miscommunication and credit-related problems.He has worked on the songs like Blue Eyes and Manali Trance along with Honey Singh. Moreover, Golu has written many songs including Yo Yo Honey Singh’s Party All Night. Likewise, some of his famous songs are Son Set, Rail Gaddi, Roll Karo, Theek Hai Theek Hai, Sexy Baby Girl, Dil Ladga Ni Mera, and Nilliyan.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,28 +198,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="7"/>
+      <color rgb="FF494747"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -115,57 +291,104 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF262626"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282828"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Epilogue"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF262626"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF262626"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D3748"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,52 +407,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,130 +780,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
+      <c r="F2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="10"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="12" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="12" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="20"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="5"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="33"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="10"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="24"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="22.2" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="38"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="10"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://www.instagram.com/indian.hiphop.scene/"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/Performance.xlsx
+++ b/scripts/Performance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -63,126 +63,464 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Lil Golu</t>
-  </si>
-  <si>
-    <t>https://twitter.com/asligolu</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/asligolu</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/iamlilgolu/?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCKtKjwT5geJT1Pibjr_qrOA</t>
-  </si>
-  <si>
-    <t>https://open.spotify.com/artist/6y16j3NM7yVHoPxDjVquuq?autoplay=true</t>
-  </si>
-  <si>
-    <t>https://music.apple.com/in/artist/lil-golu/1487471789</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>lilGolu.jpg</t>
-  </si>
-  <si>
-    <t>Sahil Kaushal</t>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>producertag</t>
+  </si>
+  <si>
+    <t>HitenMusic</t>
+  </si>
+  <si>
+    <t>Hiten Kumar</t>
+  </si>
+  <si>
+    <t>HitenMusic.jpg</t>
+  </si>
+  <si>
+    <t>Panchkula</t>
+  </si>
+  <si>
+    <t>Upcoming</t>
+  </si>
+  <si>
+    <t>HITEN a.ka. Dj Hiten Punjab based artist. EXPERIMENTS are fun. He Hails from Panchkula, Haryana. Whose real name is Hiten Kumar. Hiten was born on 30th of 1995.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ihitenmusic/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DjHiten/</t>
+  </si>
+  <si>
+    <t>https://mobile.twitter.com/ihitenmusic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/Hitenmusic/</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/597A6e3D22Vq4gxyh4mUjh</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/us/artist/hiten/1188639590</t>
+  </si>
+  <si>
+    <t>Byg Byrd</t>
+  </si>
+  <si>
+    <t>Maninder Singh Kalyan</t>
+  </si>
+  <si>
+    <t>bygByrd.jpg</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>Byg Byrd is a Punjabi Music Director who works in the Punjabi songs industry. Byg Byrd real name is Maninder Kalyan. He was born on 05 July 1988 and his birthplace is Toronto, Canada. His family background is from Hoshiarpur. His height is 5′ 9” or 175cm.
+He has struggled too much in its life for almost 12 years but never gives up and always focuses on its mistake. After almost 8 years, he got a chance to work with Fateh (Rapper) and Dr. Zeus. The song’s name was ”We Get It” but the song doesn’t get too many hits. In 2017, Byg Byrd gets popularity by the song of “So High” with Sidhu Mossewala.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bygbyrdpro/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/bygbyrdpro</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bygbyrdpro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/bygbyrdpro/</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1QO8PBgZ3Cv1xtKyw9ihjT</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/us/artist/byg-byrd/808707067</t>
+  </si>
+  <si>
+    <t>Byg Bird on the beat</t>
+  </si>
+  <si>
+    <t>flamboybeatz</t>
+  </si>
+  <si>
+    <t>flamboybeatz.jpg</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>He hails from Mumbai and produces great beats.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/flamboybeatz/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Flamboybeatz/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/flamboybeatz1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/FlamboyBeatz</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1nbhTxyeATtD6EPZR87bca</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/flamboybeatz/1459165214</t>
+  </si>
+  <si>
+    <t>https://flamboybeatz1.beatstars.com/about</t>
+  </si>
+  <si>
+    <t>Flammy made that joint</t>
+  </si>
+  <si>
+    <t>Exult Yowl</t>
+  </si>
+  <si>
+    <t>NILOY TIWARI</t>
+  </si>
+  <si>
+    <t>exultYowl.jpg</t>
+  </si>
+  <si>
+    <t>Almora</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exult Yowl is a Musician who aspires to bring a quirk to the music industry by experimenting his Indian classical music background and his devotion to electronic music. Creating a vast horizon where two different worlds meet at their best and hybridize. </t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/loy_boi/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/exultyowlofficial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/exultyowl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0lb7JKnkdGbuFZYvKk10yg</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/6szIEcaQzaFdMn8e1UQzwU?autoplay=true</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/exult-yowl/1426445797</t>
+  </si>
+  <si>
+    <t>Exult-yowl Music</t>
+  </si>
+  <si>
+    <t>Phenom </t>
+  </si>
+  <si>
+    <t>Pinaki Rattan</t>
+  </si>
+  <si>
+    <t>Phenom.jpg</t>
   </si>
   <si>
     <r>
-      <t>Lil Golu, whose real name is </t>
+      <t>Pinaki Rattan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> professionally known as </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sahil Kaushal</t>
+      <t>Phenom The Don</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> was born on</t>
+      <t> is a Goa based </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> 9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> December 1994 </t>
+      <t>rapper</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>in India. He is currently </t>
+      <t>, </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>26 years old.</t>
+      <t>DJ</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF333333"/>
+        <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> Likewise, his zodiac sign is Sagittarius. Golu holds Indian citizenship and follows Hinduism. Regarding his family members, he has not shared much of his personal information. However, he has one brother and a sister.Golu started his music career after completing his education. He had a great interest in music since a young age. He used to write his own songs and raps. However, he came to the limelight after joining the band Mafia Mundeer, created by Honey Singh in 2006. The band consisted of some of the big names today like Badshah, Raftaar, and Ikka. However, the band was dissolved in 2012 due to miscommunication and credit-related problems.He has worked on the songs like Blue Eyes and Manali Trance along with Honey Singh. Moreover, Golu has written many songs including Yo Yo Honey Singh’s Party All Night. Likewise, some of his famous songs are Son Set, Rail Gaddi, Roll Karo, Theek Hai Theek Hai, Sexy Baby Girl, Dil Ladga Ni Mera, and Nilliyan.</t>
+      <t> and self-taught </t>
     </r>
-  </si>
-  <si>
-    <t>Kings</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>producer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, who has been amongst the beat makers who have shaped Indian hip-hop’s sonic language</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.instagram.com/phenomofficial/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/phenom.tdo/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/beatsbyphenom</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCfPi9AwnkLR3LGYlWARBxkw</t>
+  </si>
+  <si>
+    <t>MojoJojo</t>
+  </si>
+  <si>
+    <t>Akshay Johar</t>
+  </si>
+  <si>
+    <t>MojoJojo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay Johar, known professionally as MojoJojo, is an Indian DJ and record producer. Having made his debut as a bass guitarist with the rock band Paradigm Shift, he later gained more prominence as an independent artist and producer.
+MojoJojo began playing piano at the age of ten and later picked up guitar during his time at college. After playing as bassist in such bands as the Gravy Train and The Doppler Effect, he made a transition into record production in 2015. His debut album, "Shots Fired" was released in 2015, earning him accolades including a Radio City Freedom Award for Best Electronica Artist and a nomination for a Global Indian Music Academy Award.
+</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mojojojomusic/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Mojojojo.15</t>
+  </si>
+  <si>
+    <t>https://twitter.com/mojojojo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCgNDcVoa71cXBnj-zOD0f7A</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/2nTeIB7MsBNBYUHlMLNgLc?autoplay=true</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/mojojojo/1547200976</t>
+  </si>
+  <si>
+    <t>Beat pai hai MOJO</t>
+  </si>
+  <si>
+    <t>Rahul Sathu</t>
+  </si>
+  <si>
+    <t>rahulSathu.jpg</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Napoleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Sathu is a Singer/Music Producer Based in Toronto, Canada. His collaborations as a music producer includes Race 3 for Salman Khan. Do Gallan, Like You &amp; Love You Jatta for Garry Sandhu. His first debut single 'Thoda' as a singer was a collaboration with Bollywood rapper Raftaar and his recent release is Jaane De Yaara with supremely talented rapper/singer King. </t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rahulsathuofficial/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RahulSathuOfficialPage</t>
+  </si>
+  <si>
+    <t>https://twitter.com/rahulsathumusic?lang=en</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/RahulSathuOfficial</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/64UjPeMUmhyalooujVrEU3</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/ca/artist/rahul-sathu/1242285727</t>
+  </si>
+  <si>
+    <t>Candid Nib</t>
+  </si>
+  <si>
+    <t>Shobhit Anand Pathak</t>
+  </si>
+  <si>
+    <t>CandidNib.jpg</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shobhit Anand Pathak better known as Candid Nib is a prominent Rap Artist, Music Producer and Audio Engineer from Dehradun, India. Currently signed in Innovura Entertainment, which is a mammoth Record Label and Artist Management company in India. The candid nib has also operated and produced numerous tracks with Major and Underground artists as well.  With a catalogue of 2500+ Tracks recorded as recording engineers, Candid nib has got ammunition of the hottest beats equipped to sculpt your tracks into flaming hits!  Also, he is specialised in a range of clean mixes and balanced industry-standard masters for tracks! About :  We as a team behind this website focus on serving the quality and believe in working with integrity towards our customers for long term connections and building a great community altogether.  Website is more inclined on satisfying customers and serving the best. </t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/candid_nib/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CANDIDNIB/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCkoQktW2CIUgrqEX0wNymcA</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/2Yu2ECBNmvr8So6FtevP73</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/candid-nib/1441759419</t>
+  </si>
+  <si>
+    <t>https://candidnib.com/</t>
+  </si>
+  <si>
+    <t>Candid NIB on th beat</t>
+  </si>
+  <si>
+    <t>Refixmusic</t>
+  </si>
+  <si>
+    <t>Abhishek Bhimte</t>
+  </si>
+  <si>
+    <t>Refixmusic.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>Abhishek Bhimte Aka Refixmusic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> is rising star in music industry. He is a Music Producer and Vocalist. He hails From Navi Mumbai, India. As a teen he started listening to Hip-Hop Music and Rap got influenced by it and started creating his own Beats .He started uploading his music on reels in March 2021 and Now, he has 20K followers and reached 1M+ people . His idea and creativity is not only loved by netizens but also by some Big Stars like Raftaar , Emiway Bantai , Karma , Raaj Jones others who appreciated for his works .</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.instagram.com/refixmusic/?hl=en</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Refixmusic2?s=09</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/Refixmusic3/</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/2QD7mDvWWHZmkOxtXBurr0</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/refixmusic/id1510516605</t>
+  </si>
+  <si>
+    <t>Dr. Zeus</t>
+  </si>
+  <si>
+    <t>Baljit Singh Padam</t>
+  </si>
+  <si>
+    <t>DrZeus.jpg</t>
+  </si>
+  <si>
+    <t>UnderDog</t>
+  </si>
+  <si>
+    <t>Dr. Seuss was born on March 2nd, 1904 in Springfield, Massachusetts.
+he is name at birth was Theodore Seuss Geisel and his parents were Theodor Robert and the Henrietta Geisel.
+He attended Springfield Central High School and graduated in 1921. He graduated from Dartmouth College in 1925.
+After being caught drinking gin in his dorm room the dean forced Theodore to resign from all extracurricular activities, including his job as editor in chief of the humor magazine at Dartmouth.
+Theodore continuous to write for the magazine but used the pen name, Seuss. After Dartmouth Seuss attended Lincoln College, at Oxford, but he quit to pursue a drawing career. The first time he signed his name as Dr. Seuss was in the magazine Judge.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/drzeusworld/?hl=en</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DrZeusOfficial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/drzeusworld?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJDjjKS67Hl_tOxW1JeECIg</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1zrFFDzoE9XXyjEqqgDpMm?autoplay=true</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/in/artist/dr-zeus/262031919</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF494747"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -273,12 +604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
@@ -371,22 +696,60 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF494747"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="Red Hat Text"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FuturaStdBook"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -421,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,68 +800,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -780,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -797,7 +1164,7 @@
     <col min="9" max="9" width="38.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" customHeight="1">
+    <row r="1" spans="1:15" ht="16.2" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -819,578 +1186,881 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="40" t="s">
+      <c r="N1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
+      <c r="A6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="12" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="12" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G9" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
+      <c r="A10" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="20"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="8"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" thickBot="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5"/>
-      <c r="B17" s="27"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="33"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="10"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="10"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="24"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="14.4" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="22.2" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8"/>
-      <c r="B34" s="37"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="38"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="10"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
+    <hyperlink ref="K10" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>